--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_002.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_002.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295001AA1.09) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Meteorological instrumentation</t>
-  </si>
-  <si>
-    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
-  </si>
-  <si>
-    <t>(295005AK2.12) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295019AK2.15) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Standby liquid control system</t>
-  </si>
-  <si>
-    <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
-  </si>
-  <si>
-    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295014AA1.08) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) HPCI</t>
-  </si>
-  <si>
-    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
+    <t>(295019AK2.18) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
+  </si>
+  <si>
+    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
+  </si>
+  <si>
+    <t>(295021AA1.02) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) RHR/shutdown cooling</t>
+  </si>
+  <si>
+    <t>(295018AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Reactor power reduction</t>
+  </si>
+  <si>
+    <t>(295023AK2.03) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295006AA1.06) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
+  </si>
+  <si>
+    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
+  </si>
+  <si>
+    <t>(295003AA1.07) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
+  </si>
+  <si>
+    <t>(295005AK2.03) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(295034EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
   </si>
   <si>
     <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
   </si>
   <si>
-    <t>(295033EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Isolating affected systems</t>
-  </si>
-  <si>
-    <t>(295032EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Impact of operating environment on components</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(209001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Torus/suppression pool water level</t>
-  </si>
-  <si>
-    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
-  </si>
-  <si>
-    <t>(261000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Drywell and suppression chamber differential pressure (Mark I)</t>
-  </si>
-  <si>
-    <t>(259002A4.12) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Instrument bypass switches</t>
-  </si>
-  <si>
-    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
-  </si>
-  <si>
-    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
-  </si>
-  <si>
-    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
-  </si>
-  <si>
-    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
-  </si>
-  <si>
-    <t>(217000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(239002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) AC power</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(264000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(205000A4.06) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor water level</t>
-  </si>
-  <si>
-    <t>(203000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291006K1.16) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of scaling on heat exchanger operation</t>
-  </si>
-  <si>
-    <t>(209002K4.02) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of overfilling reactor vessel</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
-  </si>
-  <si>
-    <t>(300000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Service air system</t>
-  </si>
-  <si>
-    <t>(209001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of emergency generators</t>
-  </si>
-  <si>
-    <t>(400000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor/turbine pressure regulating system</t>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295029EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment water level</t>
   </si>
   <si>
     <t>(261000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
   </si>
   <si>
-    <t>(215001A3.08) Ability to monitor automatic operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.7 / 45.7) TIP detector retract during accident conditions (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(216000A2.09) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Jet pump malfunction</t>
-  </si>
-  <si>
-    <t>(201003K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) RPIS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(272000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.7) DC power</t>
-  </si>
-  <si>
-    <t>(230000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(223001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Containment pressure</t>
-  </si>
-  <si>
-    <t>(204000A4.04) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Heat exchanger temperature</t>
-  </si>
-  <si>
-    <t>(290002K3.10) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation system</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510001K4.03) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Cooling tower blowdown</t>
-  </si>
-  <si>
-    <t>(226001K2.03) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+    <t>(218000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) RHR/LPCI pump running permissive</t>
+  </si>
+  <si>
+    <t>(259002A3.10) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) TDRFP lockup</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(510000K4.06) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate discharge pathway</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(212000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment and auxiliaries</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(209001A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
+  </si>
+  <si>
+    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+  </si>
+  <si>
+    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
+  </si>
+  <si>
+    <t>(264000A3.05) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Load shedding and sequencing</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(215003K4.07) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing an IRM channel</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291005K1.05) MOTORS AND GENERATORS (CFR: 41.7) Explain the difference between starting current and operating (running) current in a motor</t>
+  </si>
+  <si>
+    <t>(262001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(223002A4.08) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Group isolations</t>
+  </si>
+  <si>
+    <t>(215005K3.09) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
+  </si>
+  <si>
+    <t>(261000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Primary containment oxygen level (Mark I and II)</t>
+  </si>
+  <si>
+    <t>(218000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Low-pressure core spray pump running permissive</t>
+  </si>
+  <si>
+    <t>(259002A3.06) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Reactor water level setpoint setdown following a reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
+  </si>
+  <si>
+    <t>(241000A2.08) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main turbine overspeed</t>
+  </si>
+  <si>
+    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(245000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(290003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(286000A3.04) Ability to monitor automatic operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
+  </si>
+  <si>
+    <t>(510001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pump suction low level</t>
+  </si>
+  <si>
+    <t>(215001K4.01) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Primary containment isolation (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(239001K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(272000A4.01) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Radiation monitoring system recorders</t>
+  </si>
+  <si>
+    <t>(234000K3.01) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295010AA2.03) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
+  </si>
+  <si>
+    <t>(510000A2.06) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Discharge strainer failure</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(212000A2.06) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High reactor power</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC power loss</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290002A2.01) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA </t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292006K1.07) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Xenon following a SCRAM</t>
-  </si>
-  <si>
-    <t>(293008K1.31) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Explain the necessity of core orificing</t>
-  </si>
-  <si>
-    <t>(293009K1.32) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) List the causes of pellet-clad interaction</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295001AA2.01) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Power/flow map</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002A2.11) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,67 +385,70 @@
     <t>T</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295025</t>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295005</t>
   </si>
   <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295014</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295035</t>
@@ -454,148 +457,145 @@
     <t>295011</t>
   </si>
   <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>256000</t>
   </si>
   <si>
     <t>290002</t>
   </si>
   <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>201001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D36" t="s">
         <v>110</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1667,7 +1667,7 @@
         <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1905,7 +1905,7 @@
         <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D58" t="s">
         <v>112</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D64" t="s">
         <v>110</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
         <v>107</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
         <v>107</v>
@@ -2313,7 +2313,7 @@
         <v>4.3</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
         <v>107</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
         <v>107</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
         <v>107</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D86" t="s">
         <v>107</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
         <v>107</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
         <v>107</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D93" t="s">
         <v>107</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
